--- a/medicine/Handicap/Sophie_Robert/Sophie_Robert.xlsx
+++ b/medicine/Handicap/Sophie_Robert/Sophie_Robert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Robert, née le 3 octobre 1967 à Troyes dans l'Aube, est une scénariste, réalisatrice et productrice française.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa jeunesse, Sophie Robert avait envisagé de devenir psychanalyste mais elle en a « rapidement abandonné l'idée ». Elle a en revanche « conservé pendant des années une passion pour la psychanalyse », ce qui l'a amenée à « beaucoup l'étudier ».
-Scénariste pour la télévision, elle réalise en 2011 le film documentaire Le Mur[1]. Elle décide alors de commencer une carrière de documentariste avec des films centrés sur les Sciences humaines et sociales.
-En 2019, elle est faite chevalier de la Légion d'honneur sur proposition du premier ministre Édouard Philippe[2].
+Scénariste pour la télévision, elle réalise en 2011 le film documentaire Le Mur. Elle décide alors de commencer une carrière de documentariste avec des films centrés sur les Sciences humaines et sociales.
+En 2019, elle est faite chevalier de la Légion d'honneur sur proposition du premier ministre Édouard Philippe.
 </t>
         </is>
       </c>
@@ -544,16 +558,18 @@
           <t>Documentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, Sophie Robert réalise Le Mur ou la psychanalyse à l'épreuve de l'autisme en partenariat avec le président de l’association Autistes sans frontières, Vincent Gerhards. Ce premier volet d'une série documentaire sur la psychanalyse, qui devait être initialement diffusée sur Arte[1], a été réalisé avec le soutien financier partiel de l'association Autistes sans frontières[3].
-Il reçoit les critiques des psychanalystes interviewés. Trois d'entre eux assignent Sophie Robert en justice : Le Mur est, selon eux, « un film militant » qui les « ridiculise »[4],[3] Leur action débouche sur l'interdiction provisoire du film, qui sera finalement levée[5],[6]. Ce procès et les craintes qui en découlent chez les producteurs obligent Sophie Robert à se mettre en autoproduction, ce qui retarde les dates de sortie de ses autres documentaires[7]. 
-Son deuxième documentaire, le long métrage sur l’autisme Quelque chose en plus sort en salles[réf. nécessaire] le 2 avril 2014. Ce film est parrainé par le Ministère des Affaires sociales et de la Santé[réf. nécessaire] par l'intermédiaire de Ségolène Neuville, la Secrétaire d'État chargée des Personnes handicapées et de la Lutte contre l'exclusion[8][source insuffisante].
-En 2015, Sophie Robert diffuse, sur la web TV Dragon Bleu TV, deux programmes vidéo de format émission de plateau sur la psychanalyse et la psychiatrie. Dans le premier programme, intitulé Les déconvertis de la psychanalyse, elle interviewe trois anciens psychanalystes (Jacques Van Rillaer, Stuart Schneiderman, Jean-Pierre Ledru) et un philosophe (Mikkel Borch-Jacobsen) et, dans le second programme, elle interroge trois psychiatres et une chercheuse en neurosciences[Qui ?] traitant des repères fondamentaux de la psychiatrie scientifique. Dans une émission de La Tête au carré sur France Inter, Sophie Robert est décrite comme poursuivant[9] « son travail d'enquête et de déconstruction du dogme psychanalytique. »
-Avec le soutien du Ministère de l'Éducation nationale[réf. nécessaire], Sophie Robert commence en 2016 une série de cinq programmes vidéo pédagogiques consacrés à l’inclusion scolaire des enfants autistes[10][source insuffisante]. Ses deux premières réalisations sont sorties la même année, la première sur l'inclusion scolaire des enfants autistes en maternelle et élémentaire et la deuxième sur l'inclusion des enfants autistes en collège et lycée[réf. nécessaire].
-En 2016, elle mise en partie sur le financement participatif pour financer un documentaire intitulé Le Phallus et le Pas tout sur les théories sexuelles psychanalytiques. Le film sort en 2019 sous le titre : Le Phallus et le néant. Dix-huit psychanalystes freudiens et lacaniens, hommes et femmes, y présentent leurs positions sur la sexualité[11].
-En 2022, elle réalise le documentaire indépendant Trans Mauvais Genre: chapitre 1 une épidémie mondiale. Le documentaire est cité par 20 Minutes comme exemple de documentaires « utilisant l’image de personnes trans sans leur consentement et surfant sur certaines théories du complot promues par l’extrême droite »[12].
-En 2023, Sophie Robert publie un livre intitulé La psychanalyse est-elle une secte ? Anthropologie des fondamentalistes du freudo-lacanisme (Enrick B Éditions, coll. « Porte-Voix »), avec une préface de Jacques Van Rillaer[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, Sophie Robert réalise Le Mur ou la psychanalyse à l'épreuve de l'autisme en partenariat avec le président de l’association Autistes sans frontières, Vincent Gerhards. Ce premier volet d'une série documentaire sur la psychanalyse, qui devait être initialement diffusée sur Arte, a été réalisé avec le soutien financier partiel de l'association Autistes sans frontières.
+Il reçoit les critiques des psychanalystes interviewés. Trois d'entre eux assignent Sophie Robert en justice : Le Mur est, selon eux, « un film militant » qui les « ridiculise », Leur action débouche sur l'interdiction provisoire du film, qui sera finalement levée,. Ce procès et les craintes qui en découlent chez les producteurs obligent Sophie Robert à se mettre en autoproduction, ce qui retarde les dates de sortie de ses autres documentaires. 
+Son deuxième documentaire, le long métrage sur l’autisme Quelque chose en plus sort en salles[réf. nécessaire] le 2 avril 2014. Ce film est parrainé par le Ministère des Affaires sociales et de la Santé[réf. nécessaire] par l'intermédiaire de Ségolène Neuville, la Secrétaire d'État chargée des Personnes handicapées et de la Lutte contre l'exclusion[source insuffisante].
+En 2015, Sophie Robert diffuse, sur la web TV Dragon Bleu TV, deux programmes vidéo de format émission de plateau sur la psychanalyse et la psychiatrie. Dans le premier programme, intitulé Les déconvertis de la psychanalyse, elle interviewe trois anciens psychanalystes (Jacques Van Rillaer, Stuart Schneiderman, Jean-Pierre Ledru) et un philosophe (Mikkel Borch-Jacobsen) et, dans le second programme, elle interroge trois psychiatres et une chercheuse en neurosciences[Qui ?] traitant des repères fondamentaux de la psychiatrie scientifique. Dans une émission de La Tête au carré sur France Inter, Sophie Robert est décrite comme poursuivant « son travail d'enquête et de déconstruction du dogme psychanalytique. »
+Avec le soutien du Ministère de l'Éducation nationale[réf. nécessaire], Sophie Robert commence en 2016 une série de cinq programmes vidéo pédagogiques consacrés à l’inclusion scolaire des enfants autistes[source insuffisante]. Ses deux premières réalisations sont sorties la même année, la première sur l'inclusion scolaire des enfants autistes en maternelle et élémentaire et la deuxième sur l'inclusion des enfants autistes en collège et lycée[réf. nécessaire].
+En 2016, elle mise en partie sur le financement participatif pour financer un documentaire intitulé Le Phallus et le Pas tout sur les théories sexuelles psychanalytiques. Le film sort en 2019 sous le titre : Le Phallus et le néant. Dix-huit psychanalystes freudiens et lacaniens, hommes et femmes, y présentent leurs positions sur la sexualité.
+En 2022, elle réalise le documentaire indépendant Trans Mauvais Genre: chapitre 1 une épidémie mondiale. Le documentaire est cité par 20 Minutes comme exemple de documentaires « utilisant l’image de personnes trans sans leur consentement et surfant sur certaines théories du complot promues par l’extrême droite ».
+En 2023, Sophie Robert publie un livre intitulé La psychanalyse est-elle une secte ? Anthropologie des fondamentalistes du freudo-lacanisme (Enrick B Éditions, coll. « Porte-Voix »), avec une préface de Jacques Van Rillaer.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>L'affaire du film Le Mur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès sa sortie, le documentaire Le Mur suscite de vives critiques de la part des milieux psychanalytiques. Trois des psychanalystes et membres de l’École de la cause freudienne interviewés dans le film, Esthela Solano-Suarez, Éric Laurent (en) et Alexandre Stevens, ont porté plainte en accusant Sophie Robert d’avoir manipulé leurs propos. En première instance, la justice leur a donné raison sur ce point, interdisant à la documentariste de continuer à présenter son film en l’état[14]. Cette décision est annulée deux ans plus tard, le 16 janvier 2014 par la cour d’appel de Douai, qui reconnait toutefois que les plaignants ont été « piégés » mais que leurs propos, dans leurs seuls énoncés, n'ont pas été déformés[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès sa sortie, le documentaire Le Mur suscite de vives critiques de la part des milieux psychanalytiques. Trois des psychanalystes et membres de l’École de la cause freudienne interviewés dans le film, Esthela Solano-Suarez, Éric Laurent (en) et Alexandre Stevens, ont porté plainte en accusant Sophie Robert d’avoir manipulé leurs propos. En première instance, la justice leur a donné raison sur ce point, interdisant à la documentariste de continuer à présenter son film en l’état. Cette décision est annulée deux ans plus tard, le 16 janvier 2014 par la cour d’appel de Douai, qui reconnait toutefois que les plaignants ont été « piégés » mais que leurs propos, dans leurs seuls énoncés, n'ont pas été déformés.
 </t>
         </is>
       </c>
@@ -615,92 +633,211 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Scénariste
-Fictions
-2001 : Innocente, 90 minutes, 35 mm, Capa Drama
-2002 : Lune Rousse, 90 minutes, 35 mm, Ego Productions
-Documentaire
-2004 : Chronique des urgences, 5 × 26 minutes HD, Nova Prod Owl
-Scénariste et coproductrice
-Il s'agit de fictions :
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fictions</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2001 : Innocente, 90 minutes, 35 mm, Capa Drama
+2002 : Lune Rousse, 90 minutes, 35 mm, Ego Productions</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scénariste</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Documentaire</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2004 : Chronique des urgences, 5 × 26 minutes HD, Nova Prod Owl
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Scénariste et coproductrice</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Il s'agit de fictions :
 2005 : Les histoires extraordinaires de Pierre Bellemare - saison 2, collection de fictions 20 × 35 minutes, Elephant
-2010 : Blast, 12 × 52 minutes HD, Nord Séries[16]
-Scénariste, réalisatrice, productrice
-Il s'agit de documentaires : 
+2010 : Blast, 12 × 52 minutes HD, Nord Séries</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénariste, réalisatrice, productrice</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Il s'agit de documentaires : 
 2011 : Les troubles du spectre autistique, 28 minutes, HD, Océan Invisible Productions
 2011 : Le Mur, 52 minutes, HD, Océan Invisible Productions
 2014 : Mon univers à part, clip de 3 min 30 s, HD, Océan Invisible Productions
 2014 : Quelque chose en plus, 80 minutes, HD, Océan Invisible Productions
 2015 : Les déconvertis de la psychanalyse, 80 minutes, HD, Océan Invisible Productions
 2015 : Les fondamentaux de la psychiatrie, 60 minutes, HD, Océan Invisible Productions
-2016 : Enfants autistes : Bienvenue à l'école ! Inclusion scolaire en maternelle et élémentaire, 105 minutes, HD, Océan Invisible Productions et Ninsun Project[17]
-2016 : Enfants autistes : Bienvenue à l'école ! Inclusion scolaire en collège et lycée, 106 minutes, HD, Océan Invisible Productions et Ninsun Project[18]
+2016 : Enfants autistes : Bienvenue à l'école ! Inclusion scolaire en maternelle et élémentaire, 105 minutes, HD, Océan Invisible Productions et Ninsun Project
+2016 : Enfants autistes : Bienvenue à l'école ! Inclusion scolaire en collège et lycée, 106 minutes, HD, Océan Invisible Productions et Ninsun Project
 2016 : Enfants autistes : Bienvenue à l'école ! Le chemin vers l'inclusion, 93 minutes, HD, Océan Invisible Productions et Ninsun Project
 2016 : Enfants autistes : Bienvenue à l'école ! Qu'est ce que l'autisme ?, 89 minutes, HD, Océan Invisible Productions et Ninsun Project
 2018 : Maternophobie, 86 minutes, HD, Océan Invisible Productions et Ninsun Project
-2019 : Le Phallus et le néant, 120 minutes, HD, Océan invisible productions[19]
+2019 : Le Phallus et le néant, 120 minutes, HD, Océan invisible productions
 2019 : Hold up sur la psychologie, 71 minutes, HD, Océan Invisible Productions et Ninsun Project
 2022 : Mauvais genre, 92 minutes, HD, Dragon Bleu TV</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sophie_Robert</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sophie_Robert</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publication</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La psychanalyse, est-elle une secte? Anthropologie des fondamentalistes du freudo-lacanisme, préface de Jacques Van Rillaer, Enrick B Éditions, collection « Porte-Voix », 2023, 504 p.  (ISBN 978-2-38313-135-9).</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sophie_Robert</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sophie_Robert</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Robert</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalière de la Légion d'honneur. Le 31 décembre 2018, elle est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « scénariste, réalisatrice et productrice de films ; 23 ans de services »[20].</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalière de la Légion d'honneur. Le 31 décembre 2018, elle est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « scénariste, réalisatrice et productrice de films ; 23 ans de services ».</t>
         </is>
       </c>
     </row>
